--- a/Survey Kuisioner/User Sistem Monitoring Matrikulasi Mahasiswa-report.xlsx
+++ b/Survey Kuisioner/User Sistem Monitoring Matrikulasi Mahasiswa-report.xlsx
@@ -430,7 +430,7 @@
   <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +438,7 @@
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="170.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="104.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
